--- a/ReportGSAM_ZuroChang_20181016.xlsx
+++ b/ReportGSAM_ZuroChang_20181016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Python Script\PPTAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZuroChang\PythonScript\PTTAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9324"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -30,19 +30,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Style</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -487,6 +475,18 @@
   </si>
   <si>
     <t>01A00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pictures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,437 +892,437 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="127.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="127.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="156" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="252" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="265.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="156" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="C21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="156" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="156" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="265.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/ReportGSAM_ZuroChang_20181016.xlsx
+++ b/ReportGSAM_ZuroChang_20181016.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>資料是投資分析的基石，不同的資料能開創不同的視野，進而帶來新視野下的Alpha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Template01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -210,18 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03B00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01D01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01B01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>013001,013002,013003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,46 +218,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01B01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>016001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02F00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>017001,017002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02A01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03A00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03B01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01B01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01B00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01E01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>018001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,10 +239,6 @@
   </si>
   <si>
     <t>行程—GSAM的QIS團隊展示運作和說明的研討會(9/12、9/14)和GSAM舉辦之大數據計量論壇(9/13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Template01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -309,14 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02F05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02F01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>006002,006001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,14 +266,6 @@
   </si>
   <si>
     <t>結論—朝著Big Data目標邁進時，就會走在科技數位化的道路上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Template01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03B00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,10 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01A00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,6 +416,45 @@
   <si>
     <t>Slide</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Template02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Template02</t>
   </si>
 </sst>
 </file>
@@ -893,7 +860,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -913,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -922,10 +889,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
@@ -936,393 +903,393 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="252" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="126" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="126" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="126" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="126" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="126" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="126" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/ReportGSAM_ZuroChang_20181016.xlsx
+++ b/ReportGSAM_ZuroChang_20181016.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,13 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. IBM在2017年表示當時90%的資料是在2015年到2017年間所產生
-2. 以前的投資分析的焦點都在於10%的資料中試著擠出額外的Alpha
-3. 資料範圍是投資分析的框架，傳統模式是在同一個資料戰場內爭搶額外報酬，例如都使用Bloomberg的資料進行策略開發
-4. 現在創造Alpha的想法：前往他人不易進入的資料世界尋找Alpha，例如，找尋訂票系統資訊所創造的Alpha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 公司財報通常都是季報，且公布時間會晚半個月左右；所以建立在財報下的營利分析都是在分析前三個半月的狀況
 2. 因為美國以信用卡消費的比例逐漸提高，所以利用信用卡交易紀錄資料分析零售商盈利情況越來越可靠
 2. 2012年美國電子商務消費佔總體銷售5%，2018年目前已經達到9%的水準；網路銷售佔零售商的盈利比重越來越不可忽視
@@ -455,6 +448,17 @@
   </si>
   <si>
     <t>Template02</t>
+  </si>
+  <si>
+    <t>022_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. IBM在2017年表示當時90%的資料是在2015年到2017年間所產生
+A. 以前的投資分析的焦點都在於10%的資料中試著擠出額外的Alpha
+2. 資料範圍是投資分析的框架，傳統模式是在同一個資料戰場內爭搶額外報酬，例如都使用Bloomberg的資料進行策略開發
+3. 現在創造Alpha的想法：前往他人不易進入的資料世界尋找Alpha，例如，找尋訂票系統資訊所創造的Alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -860,7 +864,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -880,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -889,10 +893,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
@@ -903,13 +907,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>20</v>
@@ -923,13 +927,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>21</v>
@@ -943,13 +947,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>22</v>
@@ -966,10 +970,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>59</v>
@@ -983,13 +987,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>23</v>
@@ -1000,16 +1004,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>54</v>
@@ -1020,16 +1024,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>24</v>
@@ -1040,16 +1044,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
@@ -1066,10 +1070,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>26</v>
@@ -1086,10 +1090,10 @@
         <v>61</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>27</v>
@@ -1106,10 +1110,10 @@
         <v>60</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>28</v>
@@ -1126,10 +1130,10 @@
         <v>53</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>49</v>
@@ -1140,16 +1144,16 @@
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>43</v>
@@ -1160,16 +1164,16 @@
         <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>44</v>
@@ -1180,16 +1184,16 @@
         <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>45</v>
@@ -1200,16 +1204,16 @@
         <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>46</v>
@@ -1220,16 +1224,16 @@
         <v>39</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>47</v>
@@ -1246,10 +1250,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>48</v>
@@ -1263,10 +1267,10 @@
         <v>51</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>52</v>
@@ -1283,10 +1287,10 @@
         <v>58</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>57</v>
